--- a/binsheet_twoonehours.xlsx
+++ b/binsheet_twoonehours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkut\Documents\Work\Paper\Old_analysis\Ipsi-All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkut\Documents\Work\Software_tools\Clear_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C352D-945B-41D0-BE44-6356C35624F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D60D6D-45ED-436E-9361-A15FE47DF628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{818FD060-0E6C-4484-9E8E-833FC223D5A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{818FD060-0E6C-4484-9E8E-833FC223D5A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
   <si>
     <t>Timepoint</t>
   </si>
@@ -70,18 +70,6 @@
   </si>
   <si>
     <t>Normalize_Control</t>
-  </si>
-  <si>
-    <t>Conditions_MO_missing</t>
-  </si>
-  <si>
-    <t>Normalize_MO_missing</t>
-  </si>
-  <si>
-    <t>Conditions_Fc_missing</t>
-  </si>
-  <si>
-    <t>Normalize_Fc_missing</t>
   </si>
 </sst>
 </file>
@@ -439,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CA4784-B8E3-4414-A6EF-E0661A17FB19}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H1" sqref="H1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +449,7 @@
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,26 +471,8 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,26 +494,8 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -565,26 +517,8 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -606,26 +540,8 @@
       <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -647,26 +563,8 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -688,26 +586,8 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -729,26 +609,8 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -770,23 +632,8 @@
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -799,17 +646,8 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -822,17 +660,8 @@
       <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -845,17 +674,8 @@
       <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -868,17 +688,8 @@
       <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -891,17 +702,8 @@
       <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -914,17 +716,8 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -937,17 +730,8 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -960,28 +744,16 @@
       <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -994,17 +766,8 @@
       <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1017,17 +780,8 @@
       <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1040,17 +794,8 @@
       <c r="F20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1063,17 +808,8 @@
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1086,17 +822,8 @@
       <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1109,17 +836,8 @@
       <c r="F23" t="s">
         <v>10</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1132,17 +850,8 @@
       <c r="F24" t="s">
         <v>10</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1155,69 +864,48 @@
       <c r="F25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1225,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
